--- a/data/long_bre/P23_7-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_7-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-62,2%</t>
+          <t>-6,87%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-64,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-3,53%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 9,01</t>
+          <t>-11,14; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -1,82</t>
+          <t>-20,92; -3,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 76,46</t>
+          <t>-16,75; 13,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-85,76; -10,31</t>
+          <t>-50,37; 87,97</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-87,83; -16,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-53,55; 116,79</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 11,84</t>
+          <t>-12,37; 11,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 19,84</t>
+          <t>-2,68; 20,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 18,78</t>
+          <t>-13,52; 21,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 30,6</t>
+          <t>-15,71; 17,21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 32,78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-18,97; 48,09</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 10,33</t>
+          <t>-7,57; 9,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 10,23</t>
+          <t>-8,38; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 190,75</t>
+          <t>-16,7; 9,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 169,15</t>
+          <t>-54,61; 207,41</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-49,45; 154,82</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-59,24; 103,51</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 10,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 103,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,9; 114,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>-5,68%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-13,04%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-9,93%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 24,35</t>
+          <t>-22,82; 11,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 28,0</t>
+          <t>-13,1; 5,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 48,52</t>
+          <t>-9,96; 6,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 49,42</t>
+          <t>-67,89; 115,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-69,59; 81,26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-61,22; 107,44</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,13</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,41%</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-60,33%</t>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 1,74</t>
+          <t>-4,43; 27,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -3,14</t>
+          <t>1,95; 30,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 17,22</t>
+          <t>-11,56; 21,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,11; -23,14</t>
+          <t>-5,46; 58,3</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 57,12</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 38,79</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,55</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-42,46%</t>
+          <t>-46,02%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-59,06%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-12,58%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 9,07</t>
+          <t>-25,1; 0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -0,49</t>
+          <t>-32,42; -2,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 74,42</t>
+          <t>-22,0; 9,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-65,68; -0,26</t>
+          <t>-78,55; 7,26</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-85,61; -16,28</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-63,66; 82,89</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 14,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 12,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 21,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,07%</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-42,38%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-18,5%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 4,31</t>
+          <t>-6,66; 9,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 11,86</t>
+          <t>-17,15; -0,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 34,2</t>
+          <t>-15,22; 5,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 118,31</t>
+          <t>-30,24; 72,29</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-66,68; 4,85</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; 36,72</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,47%</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,33%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 6,18</t>
+          <t>-7,61; 13,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 10,85</t>
+          <t>-6,4; 13,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 47,54</t>
+          <t>0,08; 21,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 82,53</t>
+          <t>-10,94; 25,26</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 22,01</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 45,3</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,49</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>-19,86%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37,54%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-30,56%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 6,06</t>
+          <t>-15,03; 4,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 1,64</t>
+          <t>-2,18; 11,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 10,19</t>
+          <t>-15,32; 1,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 2,34</t>
+          <t>-54,32; 28,91</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 113,98</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-54,1; 6,39</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 13,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 105,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 80,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-9,92%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-8,53%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 7,53</t>
+          <t>-9,17; 4,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 4,3</t>
+          <t>-5,95; 11,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 42,93</t>
+          <t>-9,85; 6,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 31,26</t>
+          <t>-42,36; 32,72</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-26,25; 84,18</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-39,87; 43,86</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-13,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 15,35</t>
+          <t>-14,43; 3,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 10,88</t>
+          <t>-17,27; 0,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 29,4</t>
+          <t>-2,85; 20,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 19,63</t>
+          <t>-20,93; 6,39</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 1,48</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 46,96</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,29%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-21,34%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 7,94</t>
+          <t>-1,19; 13,99</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,87</t>
+          <t>-1,85; 11,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 57,43</t>
+          <t>-20,19; 4,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 72,87</t>
+          <t>-5,84; 108,39</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 78,2</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-52,77; 18,62</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 16,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 120,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 39,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-15,27%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 11,44</t>
+          <t>-13,01; 6,21</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 10,28</t>
+          <t>-10,04; 5,22</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 20,94</t>
+          <t>-9,28; 10,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 18,75</t>
+          <t>-44,68; 35,42</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-45,66; 38,85</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-41,91; 81,38</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,69</t>
+          <t>-7,4; 15,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 14,56</t>
+          <t>-9,04; 9,62</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 69,61</t>
+          <t>-15,77; 11,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 109,81</t>
+          <t>-11,94; 30,94</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 16,22</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-23,33; 20,66</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,59</t>
+          <t>-13,51; 7,87</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,67</t>
+          <t>-5,52; 9,8</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 29,02</t>
+          <t>-8,95; 11,83</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 4,82</t>
+          <t>-47,71; 53,3</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-23,88; 59,42</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-34,2; 73,53</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 10,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>22,61%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,6</t>
+          <t>-8,51; 17,5</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 4,71</t>
+          <t>-12,24; 5,41</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 17,79</t>
+          <t>-8,88; 15,1</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 31,35</t>
+          <t>-31,46; 122,26</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-49,34; 43,85</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-45,43; 164,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-5,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 12,51</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-14,19; 8,33</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 13,39</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-24,23; 22,79</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 14,57</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-23,81; 26,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-10,21%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 7,84</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 15,77</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-16,12; 9,99</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-50,95; 64,46</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; 125,03</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-51,85; 62,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-18,63%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-1,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 4,42</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 0,09</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 3,97</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 26,64</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-35,57; 0,49</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-22,65; 26,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 6,77</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 6,1</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 9,65</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 11,05</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 9,41</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 17,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-3,37</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-7,05%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-14,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 2,35</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 5,29</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 1,81</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-27,21; 16,42</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 35,58</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-32,26; 9,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
